--- a/mnist_rankfiltering.xlsx
+++ b/mnist_rankfiltering.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B48F7AF-1D4B-4703-A441-1B9A5C343163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC0066-377C-45AB-8D8C-8B2CAC92B330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
   <sheets>
     <sheet name="ace75svm" sheetId="1" r:id="rId1"/>
     <sheet name="ace80svm" sheetId="4" r:id="rId2"/>
-    <sheet name="ace%70 svm" sheetId="2" r:id="rId3"/>
-    <sheet name="ace%80 svm" sheetId="3" r:id="rId4"/>
+    <sheet name="ace85svm" sheetId="5" r:id="rId3"/>
+    <sheet name="ace%70 svm" sheetId="2" r:id="rId4"/>
+    <sheet name="ace%80 svm" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -65,6 +66,24 @@
   </si>
   <si>
     <t>Miclassification error%(100-Accuracy)</t>
+  </si>
+  <si>
+    <t>% error reduction</t>
+  </si>
+  <si>
+    <t>error reduction</t>
+  </si>
+  <si>
+    <t>Best SVM: Rank1 : %80</t>
+  </si>
+  <si>
+    <t>1 label col : 2 classes : one and seven</t>
+  </si>
+  <si>
+    <t>Dataset: Train: 785 X 4458 Test:784 X 1911</t>
+  </si>
+  <si>
+    <t>784 features</t>
   </si>
 </sst>
 </file>
@@ -104,7 +123,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +148,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -273,11 +304,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -312,6 +423,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,19 +761,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB9F857-F3DE-4485-8C6A-B17EC51ACD9D}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="16.54296875" customWidth="1"/>
     <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,8 +784,14 @@
         <v>8</v>
       </c>
       <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -665,7 +808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -690,7 +833,7 @@
         <v>1.2454212</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -715,7 +858,7 @@
         <v>1.4652014000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -731,7 +874,7 @@
       <c r="E5" s="10">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="14">
         <f t="shared" ref="F5:G5" si="1">SUM(C5,C14,C23,C32,C41)/5</f>
         <v>1.7477759999999996</v>
       </c>
@@ -739,8 +882,16 @@
         <f t="shared" si="1"/>
         <v>1.9256934000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5">
+        <f t="shared" ref="I4:I9" si="2">$G5-F5</f>
+        <v>0.17791740000000056</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K4:K9" si="3">I5/G5*100</f>
+        <v>9.2391343294836314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -757,15 +908,23 @@
         <v>20</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" ref="F6:G6" si="2">SUM(C6,C15,C24,C33,C42)/5</f>
+        <f t="shared" ref="F6:G6" si="4">SUM(C6,C15,C24,C33,C42)/5</f>
         <v>2.2710621999999998</v>
       </c>
       <c r="G6" s="8">
+        <f t="shared" si="4"/>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>4.2072213999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.9361592000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>46.019902827077274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -782,15 +941,23 @@
         <v>30</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" ref="F7:G7" si="3">SUM(C7,C16,C25,C34,C43)/5</f>
+        <f t="shared" ref="F7:G7" si="5">SUM(C7,C16,C25,C34,C43)/5</f>
         <v>5.2223968000000003</v>
       </c>
       <c r="G7" s="8">
+        <f t="shared" si="5"/>
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>3.7676609999999986</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="3"/>
-        <v>8.9900577999999989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>41.909196623852615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -807,15 +974,23 @@
         <v>40</v>
       </c>
       <c r="F8" s="14">
-        <f t="shared" ref="F8:G8" si="4">SUM(C8,C17,C26,C35,C44)/5</f>
+        <f t="shared" ref="F8:G8" si="6">SUM(C8,C17,C26,C35,C44)/5</f>
         <v>10.5494506</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.226582999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>6.6771323999999979</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>38.7606317515203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -832,20 +1007,28 @@
         <v>50</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" ref="F9:G9" si="5">SUM(C9,C18,C27,C36,C45)/5</f>
+        <f t="shared" ref="F9:G9" si="7">SUM(C9,C18,C27,C36,C45)/5</f>
         <v>19.3406594</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26.3526946</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>7.0120351999999997</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>26.60841825260632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -854,8 +1037,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>2.7958436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -869,7 +1056,7 @@
         <v>1.360544</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -883,7 +1070,7 @@
         <v>1.51753</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -897,7 +1084,7 @@
         <v>1.988488</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -911,7 +1098,7 @@
         <v>4.2909470000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -1307,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7E4CB-1013-4A61-8F30-D13FBB6C7CB7}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1318,9 +1505,11 @@
     <col min="5" max="5" width="10.1796875" customWidth="1"/>
     <col min="6" max="6" width="15.453125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1329,8 +1518,14 @@
         <v>8</v>
       </c>
       <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1349,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1374,7 +1569,7 @@
         <v>1.2454212</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1399,7 +1594,7 @@
         <v>1.4652014000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1423,8 +1618,16 @@
         <f t="shared" si="0"/>
         <v>1.9256934000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5">
+        <f t="shared" ref="I4:I9" si="1">$G5-F5</f>
+        <v>0.10465720000000012</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K10" si="2">I5/G5*100</f>
+        <v>5.4347800122283285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1448,8 +1651,16 @@
         <f t="shared" si="0"/>
         <v>4.2072213999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.6745160000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>39.800995497883711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1473,8 +1684,16 @@
         <f t="shared" si="0"/>
         <v>8.9900577999999989</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>2.9094717999999995</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>32.363215729269278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1498,8 +1717,16 @@
         <f t="shared" si="0"/>
         <v>17.226582999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>6.4364209999999975</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>37.363306466523269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1523,13 +1750,21 @@
         <f t="shared" si="0"/>
         <v>26.3526946</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>5.7980109999999989</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>22.001586888955178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -1540,8 +1775,12 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>2.417582428571428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -1555,7 +1794,7 @@
         <v>1.360544</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1569,7 +1808,7 @@
         <v>1.51753</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1583,7 +1822,7 @@
         <v>1.988488</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -1597,7 +1836,7 @@
         <v>4.2909470000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -1994,20 +2233,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45D620-F4D9-41D4-9209-FD4CDAC74CC7}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BA75B9-0464-4E6A-B56A-4C76CADCD4C5}">
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,8 +2257,14 @@
         <v>8</v>
       </c>
       <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2036,7 +2283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2044,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>4.0816330000000001</v>
+        <v>1.6745159999999999</v>
       </c>
       <c r="D3" s="4">
         <v>1.15123</v>
@@ -2054,14 +2301,14 @@
       </c>
       <c r="F3" s="5">
         <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>2.5850341999999999</v>
+        <v>1.8733648000000003</v>
       </c>
       <c r="G3" s="8">
         <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>0.82679220000000009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.2454212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2069,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>3.6630039999999999</v>
+        <v>1.726845</v>
       </c>
       <c r="D4" s="4">
         <v>1.308216</v>
@@ -2079,14 +2326,14 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>2.3338568000000004</v>
+        <v>1.8001047999999997</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>0.94191520000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1.4652014000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2094,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>3.2967029999999999</v>
+        <v>1.831502</v>
       </c>
       <c r="D5" s="4">
         <v>2.1454740000000001</v>
@@ -2102,16 +2349,24 @@
       <c r="E5" s="10">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>2.0931448000000001</v>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8001048000000002</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>1.2454214000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.9256934000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I4:I9" si="1">$G5-F5</f>
+        <v>0.12558859999999994</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K10" si="2">I5/G5*100</f>
+        <v>6.5217339375001195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2119,7 +2374,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>2.9827319999999999</v>
+        <v>2.616431</v>
       </c>
       <c r="D6" s="4">
         <v>4.2386189999999999</v>
@@ -2129,14 +2384,22 @@
       </c>
       <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>1.8105704</v>
+        <v>2.616431</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>2.6792255999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.5907903999999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>37.810950476720812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2144,7 +2407,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="4">
-        <v>2.9304030000000001</v>
+        <v>5.5468339999999996</v>
       </c>
       <c r="D7" s="4">
         <v>8.7912090000000003</v>
@@ -2154,14 +2417,22 @@
       </c>
       <c r="F7" s="14">
         <f t="shared" si="0"/>
-        <v>1.9152276000000001</v>
+        <v>6.3526948000000001</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>5.2851911999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>2.6373629999999988</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>29.336440973716531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2169,7 +2440,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="4">
-        <v>4.7619049999999996</v>
+        <v>12.663527</v>
       </c>
       <c r="D8" s="4">
         <v>17.111460000000001</v>
@@ -2179,14 +2450,22 @@
       </c>
       <c r="F8" s="14">
         <f t="shared" si="0"/>
-        <v>2.6582940000000002</v>
+        <v>12.098377800000002</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>10.392464799999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+        <v>17.226582999999998</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5.1282051999999965</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>29.769137617135083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2194,7 +2473,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="4">
-        <v>6.6457350000000002</v>
+        <v>21.297750000000001</v>
       </c>
       <c r="D9" s="4">
         <v>26.373626000000002</v>
@@ -2204,19 +2483,27 @@
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>3.9141810000000001</v>
+        <v>22.574568399999997</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>15.300889399999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>26.3526946</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>3.7781262000000027</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>14.336773743053973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -2227,8 +2514,12 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>1.8942961999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2236,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="4">
-        <v>4.6572480000000001</v>
+        <v>2.407117</v>
       </c>
       <c r="D12" s="4">
         <v>1.360544</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -2250,13 +2541,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="4">
-        <v>4.0816330000000001</v>
+        <v>2.040816</v>
       </c>
       <c r="D13" s="4">
         <v>1.51753</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -2264,13 +2555,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="4">
-        <v>3.8723179999999999</v>
+        <v>1.7791729999999999</v>
       </c>
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -2278,13 +2569,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>2.721088</v>
+        <v>3.0350600000000001</v>
       </c>
       <c r="D15" s="4">
         <v>4.2909470000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -2292,7 +2583,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="4">
-        <v>3.0873889999999999</v>
+        <v>6.4887490000000003</v>
       </c>
       <c r="D16" s="4">
         <v>8.5295660000000009</v>
@@ -2306,7 +2597,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="4">
-        <v>4.3956039999999996</v>
+        <v>13.814757</v>
       </c>
       <c r="D17" s="4">
         <v>18.524332999999999</v>
@@ -2320,7 +2611,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="4">
-        <v>7.7969650000000001</v>
+        <v>22.762951000000001</v>
       </c>
       <c r="D18" s="4">
         <v>25.117739</v>
@@ -2351,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="4">
-        <v>4.1862899999999996</v>
+        <v>2.0931449999999998</v>
       </c>
       <c r="D21" s="4">
         <v>1.622187</v>
@@ -2365,7 +2656,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="4">
-        <v>3.9246470000000002</v>
+        <v>2.1978019999999998</v>
       </c>
       <c r="D22" s="4">
         <v>1.8838299999999999</v>
@@ -2379,7 +2670,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="4">
-        <v>3.2967029999999999</v>
+        <v>2.2501310000000001</v>
       </c>
       <c r="D23" s="4">
         <v>2.0931449999999998</v>
@@ -2393,7 +2684,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4">
-        <v>3.3490319999999998</v>
+        <v>3.0350600000000001</v>
       </c>
       <c r="D24" s="4">
         <v>4.8665620000000001</v>
@@ -2407,7 +2698,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="4">
-        <v>3.5583459999999998</v>
+        <v>6.017792</v>
       </c>
       <c r="D25" s="4">
         <v>9.105181</v>
@@ -2421,7 +2712,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="4">
-        <v>4.1339610000000002</v>
+        <v>10.361068</v>
       </c>
       <c r="D26" s="4">
         <v>16.326530999999999</v>
@@ -2435,7 +2726,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="4">
-        <v>5.1282050000000003</v>
+        <v>22.448979999999999</v>
       </c>
       <c r="D27" s="4">
         <v>25.013082000000001</v>
@@ -2444,6 +2735,231 @@
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.465201</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.73260099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.15123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.7734169999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.227106</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.2679229999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4">
+        <v>11.616954</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16.902145000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>23.809524</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.891155999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.936159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.5002620000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>7.4829929999999996</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.256410000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12.035583000000001</v>
+      </c>
+      <c r="D44" s="4">
+        <v>17.268446000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>22.553636999999998</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27.36787</v>
       </c>
     </row>
   </sheetData>
@@ -2456,20 +2972,529 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E60F0C-121E-4CA4-AD01-FA0B3C207F39}">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45D620-F4D9-41D4-9209-FD4CDAC74CC7}">
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.0816330000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>2.5850341999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>0.82679220000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.6630039999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>2.3338568000000004</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.94191520000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.2967029999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0931448000000001</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2454214000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.9827319999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8105704</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6792255999999997</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I4:I9" si="1">$G6-F6</f>
+        <v>0.86865519999999963</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K5:K10" si="2">I6/G6*100</f>
+        <v>32.42187593310544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.9304030000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>1.9152276000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>5.2851911999999999</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>3.3699635999999997</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>63.762378170916499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.7619049999999996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>2.6582940000000002</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>10.392464799999999</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>7.7341707999999993</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>74.42094776207469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.6457350000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>3.9141810000000001</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>15.300889399999999</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>11.3867084</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>74.418604711958764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>3.3370711428571425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.6572480000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.0816330000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.8723179999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.721088</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.0873889999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.3956039999999996</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7.7969650000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.1862899999999996</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.9246470000000002</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.2967029999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.3490319999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.5583459999999998</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4.1339610000000002</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5.1282050000000003</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E60F0C-121E-4CA4-AD01-FA0B3C207F39}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="14.1796875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2478,8 +3503,15 @@
         <v>8</v>
       </c>
       <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2497,8 +3529,11 @@
       <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2522,8 +3557,11 @@
         <f>SUM(D3,D12,D21,D30,D39)/5</f>
         <v>1.2454212</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2547,8 +3585,11 @@
         <f t="shared" si="0"/>
         <v>1.4652014000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2572,8 +3613,11 @@
         <f t="shared" si="0"/>
         <v>1.9256934000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2597,8 +3641,17 @@
         <f t="shared" si="0"/>
         <v>4.2072213999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="5">
+        <f t="shared" ref="I4:I9" si="1">$G6-F6</f>
+        <v>0.59654640000000025</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <f t="shared" ref="K5:K10" si="2">I6/G6*100</f>
+        <v>14.179106428770311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2622,8 +3675,17 @@
         <f t="shared" si="0"/>
         <v>8.9900577999999989</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>5.1491367999999991</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
+        <f t="shared" si="2"/>
+        <v>57.275903164938491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2647,8 +3709,17 @@
         <f t="shared" si="0"/>
         <v>17.226582999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>12.182103799999998</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
+        <f t="shared" si="2"/>
+        <v>70.716890285206304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2672,13 +3743,25 @@
         <f t="shared" si="0"/>
         <v>26.3526946</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>19.1104132</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <f t="shared" si="2"/>
+        <v>72.517871474137607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -2689,8 +3772,14 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11" s="5">
+        <f>SUM(I3:I9)/7</f>
+        <v>5.2911714571428572</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2704,7 +3793,7 @@
         <v>1.360544</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11" ht="15" thickBot="1">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -2717,8 +3806,15 @@
       <c r="D13" s="4">
         <v>1.51753</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -2731,8 +3827,15 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -2745,8 +3848,15 @@
       <c r="D15" s="4">
         <v>4.2909470000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -2759,8 +3869,15 @@
       <c r="D16" s="4">
         <v>8.5295660000000009</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="3">
         <v>5</v>
       </c>
@@ -2773,8 +3890,13 @@
       <c r="D17" s="4">
         <v>18.524332999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -2788,12 +3910,12 @@
         <v>25.117739</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -2805,7 +3927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -2819,7 +3941,7 @@
         <v>1.622187</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -2833,7 +3955,7 @@
         <v>1.8838299999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:10">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -2847,7 +3969,7 @@
         <v>2.0931449999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -2861,7 +3983,7 @@
         <v>4.8665620000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -2875,7 +3997,7 @@
         <v>9.105181</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:10">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -2889,7 +4011,7 @@
         <v>16.326530999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:10">
       <c r="A27" s="3">
         <v>6</v>
       </c>
@@ -2903,12 +4025,12 @@
         <v>25.013082000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -2920,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -2934,7 +4056,7 @@
         <v>0.73260099999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -2948,7 +4070,7 @@
         <v>1.15123</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:10">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -3134,8 +4256,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mnist_rankfiltering.xlsx
+++ b/mnist_rankfiltering.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D0E5F-4125-4BC5-A1B6-554EED5B5432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4726FAD-DCAC-4276-A8A7-DE4AB819343A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="7" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
   <sheets>
-    <sheet name="ace85svm" sheetId="5" r:id="rId1"/>
-    <sheet name="ace75svm" sheetId="1" r:id="rId2"/>
-    <sheet name="ace%20" sheetId="6" r:id="rId3"/>
-    <sheet name="ace%25" sheetId="9" r:id="rId4"/>
-    <sheet name="ace%10" sheetId="7" r:id="rId5"/>
-    <sheet name="ace%15" sheetId="8" r:id="rId6"/>
-    <sheet name="ace%70 svm" sheetId="2" r:id="rId7"/>
-    <sheet name="ace%80 svm" sheetId="3" r:id="rId8"/>
-    <sheet name="ace80svm" sheetId="4" r:id="rId9"/>
+    <sheet name="ace85svm" sheetId="5" state="hidden" r:id="rId1"/>
+    <sheet name="ace75svm" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="ace%20" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="ace%25" sheetId="9" state="hidden" r:id="rId4"/>
+    <sheet name="ace recur svm 20%" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="ace svm 75 percentile" sheetId="11" state="hidden" r:id="rId6"/>
+    <sheet name="ace svm 25% " sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
+    <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="ace%10" sheetId="7" state="hidden" r:id="rId10"/>
+    <sheet name="ace%15" sheetId="8" state="hidden" r:id="rId11"/>
+    <sheet name="ace%70 svm" sheetId="2" state="hidden" r:id="rId12"/>
+    <sheet name="ace%80 svm" sheetId="3" state="hidden" r:id="rId13"/>
+    <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="31">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -96,6 +100,48 @@
   <si>
     <t>Dataset: Train: 784 X 4458 Test:784 X 1911</t>
   </si>
+  <si>
+    <t>Missclassification error</t>
+  </si>
+  <si>
+    <t>%cor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE Rank1 </t>
+  </si>
+  <si>
+    <t>Cor file</t>
+  </si>
+  <si>
+    <t>%error reduction</t>
+  </si>
+  <si>
+    <t>ACE iteration =20</t>
+  </si>
+  <si>
+    <t>ACE epsilon=0.05</t>
+  </si>
+  <si>
+    <t>Misclassification error</t>
+  </si>
+  <si>
+    <t>%Misclassification error reduction</t>
+  </si>
+  <si>
+    <t>Cor %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rank1 </t>
+  </si>
+  <si>
+    <t>ACE iter=1</t>
+  </si>
+  <si>
+    <t>C:\Users\shukl\Documents\GitHub\Mnist\split1\mnist_ace_l1pca.mlx</t>
+  </si>
+  <si>
+    <t>Dataset: Train: 785 X 9105 Test:784 X 3902</t>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +180,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +217,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -395,11 +453,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -444,6 +528,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,6 +559,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -792,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="45"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -1503,6 +1611,3520 @@
       </c>
       <c r="C45" s="4">
         <v>22.553636999999998</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27.36787</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043E0DC0-F016-4AF6-A513-992480384507}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>1.6849816</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>1.2454212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>1.7163787999999998</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4652014000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>1.6117215999999999</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9256934000000001</v>
+      </c>
+      <c r="I5">
+        <f>$G5-F5</f>
+        <v>0.31397180000000025</v>
+      </c>
+      <c r="K5">
+        <f>I5/G5*100</f>
+        <v>16.304350422554297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.7734169999999998</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6">
+        <f>$G6-F6</f>
+        <v>1.4338044000000001</v>
+      </c>
+      <c r="K6">
+        <f>I6/G6*100</f>
+        <v>34.079604177712163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.4887490000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>7.0434327999999997</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7">
+        <f>$G7-F7</f>
+        <v>1.9466249999999992</v>
+      </c>
+      <c r="K7">
+        <f>I7/G7*100</f>
+        <v>21.653086590833702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>13.239141999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>14.2229198</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>17.226582999999998</v>
+      </c>
+      <c r="I8">
+        <f>$G8-F8</f>
+        <v>3.0036631999999983</v>
+      </c>
+      <c r="K8">
+        <f>I8/G8*100</f>
+        <v>17.436210071376308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>22.658294000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>23.526949199999997</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>26.3526946</v>
+      </c>
+      <c r="I9">
+        <f>$G9-F9</f>
+        <v>2.8257454000000024</v>
+      </c>
+      <c r="K9">
+        <f>I9/G9*100</f>
+        <v>10.722794928151304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>1.3605442571428572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.040816</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I7)/3</f>
+        <v>1.2314670666666665</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.831502</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.0350600000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.6980639999999996</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>15.122972000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22.972266000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.040816</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.3024589999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.988488</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.1920459999999999</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.7503919999999997</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>13.762428</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>23.338566</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.2035579999999999</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.73260099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.255887</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.15123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.465201</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.6687599999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.593407</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.2679229999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4">
+        <v>14.4427</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16.902145000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>24.856096000000001</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.891155999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.465201</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.936159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.831502</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.5002620000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>8.6865520000000007</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.256410000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>14.547357</v>
+      </c>
+      <c r="D44" s="4">
+        <v>17.268446000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>23.809524</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27.36787</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADC542-DE48-4E27-9C80-E62713485DC9}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.6745159999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>1.8733648000000003</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>1.2454212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>1.8001047999999997</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4652014000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.831502</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8001048000000002</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9256934000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.616431</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.616431</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6">
+        <f>$G6-F6</f>
+        <v>1.5907903999999999</v>
+      </c>
+      <c r="K6">
+        <f>I6/G6*100</f>
+        <v>37.810950476720812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.5468339999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3526948000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7">
+        <f>$G7-F7</f>
+        <v>2.6373629999999988</v>
+      </c>
+      <c r="K7">
+        <f>I7/G7*100</f>
+        <v>29.336440973716531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12.663527</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>12.098377800000002</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>17.226582999999998</v>
+      </c>
+      <c r="I8">
+        <f>$G8-F8</f>
+        <v>5.1282051999999965</v>
+      </c>
+      <c r="K8">
+        <f>I8/G8*100</f>
+        <v>29.769137617135083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>21.245421</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>22.574568199999998</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>26.3526946</v>
+      </c>
+      <c r="I9">
+        <f>$G9-F9</f>
+        <v>3.7781264000000014</v>
+      </c>
+      <c r="K9">
+        <f>I9/G9*100</f>
+        <v>14.336774501989643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>1.8763549999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.407117</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I7)/3</f>
+        <v>1.4093844666666662</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.040816</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.7791729999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.0350600000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.4887490000000003</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13.814757</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22.762951000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.1978019999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.2501310000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.0350600000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.017792</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10.361068</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>22.448979999999999</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.465201</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.73260099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.15123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.7734169999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.227106</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.2679229999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4">
+        <v>11.616954</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16.902145000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>23.809524</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.891155999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.936159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.5002620000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>7.4829929999999996</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.256410000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12.035583000000001</v>
+      </c>
+      <c r="D44" s="4">
+        <v>17.268446000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>22.605965000000001</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27.36787</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45D620-F4D9-41D4-9209-FD4CDAC74CC7}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.0816330000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>2.5850341999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>0.82679220000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.6630039999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>2.3338568000000004</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.94191520000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.2967029999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0931448000000001</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2454214000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.9827319999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8105704</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6792255999999997</v>
+      </c>
+      <c r="I6">
+        <f>$G6-F6</f>
+        <v>0.86865519999999963</v>
+      </c>
+      <c r="K6">
+        <f>I6/G6*100</f>
+        <v>32.42187593310544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.9304030000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>1.9152276000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>5.2851911999999999</v>
+      </c>
+      <c r="I7">
+        <f>$G7-F7</f>
+        <v>3.3699635999999997</v>
+      </c>
+      <c r="K7">
+        <f>I7/G7*100</f>
+        <v>63.762378170916499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.7619049999999996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>2.6582940000000002</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>10.392464799999999</v>
+      </c>
+      <c r="I8">
+        <f>$G8-F8</f>
+        <v>7.7341707999999993</v>
+      </c>
+      <c r="K8">
+        <f>I8/G8*100</f>
+        <v>74.42094776207469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.6457350000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>3.9141810000000001</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>15.300889399999999</v>
+      </c>
+      <c r="I9">
+        <f>$G9-F9</f>
+        <v>11.3867084</v>
+      </c>
+      <c r="K9">
+        <f>I9/G9*100</f>
+        <v>74.418604711958764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>3.3370711428571425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.6572480000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I7)/3</f>
+        <v>1.4128729333333332</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.0816330000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.8723179999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.721088</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.0873889999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.3956039999999996</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7.7969650000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.1862899999999996</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.9246470000000002</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.2967029999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.3490319999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.5583459999999998</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4.1339610000000002</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5.1282050000000003</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E60F0C-121E-4CA4-AD01-FA0B3C207F39}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.5525900000000004</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>4.7514389999999995</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>1.2454212</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>4.3223446000000001</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4652014000000002</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.7153320000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7990581999999997</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9256934000000001</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.5583459999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>3.6106749999999996</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6" s="5">
+        <f>$G6-F6</f>
+        <v>0.59654640000000025</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <f>I6/G6*100</f>
+        <v>14.179106428770311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.7153320000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>3.8409210000000003</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7" s="5">
+        <f>$G7-F7</f>
+        <v>5.1491367999999991</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
+        <f>I7/G7*100</f>
+        <v>57.275903164938491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5.5991629999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>5.0444791999999996</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>17.226582999999998</v>
+      </c>
+      <c r="I8" s="5">
+        <f>$G8-F8</f>
+        <v>12.182103799999998</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
+        <f>I8/G8*100</f>
+        <v>70.716890285206304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7.8492940000000004</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>7.2422813999999986</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>26.3526946</v>
+      </c>
+      <c r="I9" s="5">
+        <f>$G9-F9</f>
+        <v>19.1104132</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <f>I9/G9*100</f>
+        <v>72.517871474137607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <f>SUM(I3:I9)/7</f>
+        <v>5.2911714571428572</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5.3375199999999996</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I7)/3</f>
+        <v>1.9152277333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.9188910000000003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.7676609999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.0293039999999998</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.1282050000000003</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6.6457350000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5.4945050000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.6049189999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.0293039999999998</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.7153320000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4.5525900000000004</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5.5468339999999996</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.9246470000000002</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.73260099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3.6630039999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.15123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.2443749999999998</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3.2443749999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3.2967029999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.2679229999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4.9712189999999996</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16.902145000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>8.5818940000000001</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.891155999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4.4479329999999999</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4.1862899999999996</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.7676609999999999</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.936159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3.7676609999999999</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.5002620000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.9246470000000002</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.256410000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4.9712189999999996</v>
+      </c>
+      <c r="D44" s="4">
+        <v>17.268446000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>7.58765</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27.36787</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F13:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7E4CB-1013-4A61-8F30-D13FBB6C7CB7}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.7791729999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>1.9152277999999998</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>1.2454212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>1.7582418</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4652014000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.6745159999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8210362</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9256934000000001</v>
+      </c>
+      <c r="I5">
+        <f>$G5-F5</f>
+        <v>0.10465720000000012</v>
+      </c>
+      <c r="K5">
+        <f>I5/G5*100</f>
+        <v>5.4347800122283285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.3547880000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5327053999999998</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6">
+        <f>$G6-F6</f>
+        <v>1.6745160000000001</v>
+      </c>
+      <c r="K6">
+        <f>I6/G6*100</f>
+        <v>39.800995497883711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.651491</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>6.0805859999999994</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7">
+        <f>$G7-F7</f>
+        <v>2.9094717999999995</v>
+      </c>
+      <c r="K7">
+        <f>I7/G7*100</f>
+        <v>32.363215729269278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10.256410000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>10.790162</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>17.226582999999998</v>
+      </c>
+      <c r="I8">
+        <f>$G8-F8</f>
+        <v>6.4364209999999975</v>
+      </c>
+      <c r="K8">
+        <f>I8/G8*100</f>
+        <v>37.363306466523269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>19.518577000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>20.554683600000001</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>26.3526946</v>
+      </c>
+      <c r="I9">
+        <f>$G9-F9</f>
+        <v>5.7980109999999989</v>
+      </c>
+      <c r="K9">
+        <f>I9/G9*100</f>
+        <v>22.001586888955178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>2.417582428571428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.407117</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I7)/3</f>
+        <v>1.5628816666666665</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.8780739999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.017792</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>11.616954</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>20.931450000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.2501310000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.988488</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.2443749999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.2794350000000003</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10.413396000000001</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>19.152276000000001</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.412873</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.73260099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.15123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.1978019999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.651491</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.2679229999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10.256410000000001</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16.902145000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>21.454736</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.891155999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.6745159999999999</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.51753</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.936159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.988488</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.5002620000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>6.802721</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.256410000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>11.407640000000001</v>
+      </c>
+      <c r="D44" s="4">
+        <v>17.268446000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>21.716379</v>
       </c>
       <c r="D45" s="4">
         <v>27.36787</v>
@@ -1541,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="45"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -1851,13 +5473,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -2301,8 +5923,8 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2316,10 +5938,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="45"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -2626,13 +6248,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -3078,7 +6700,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:I18"/>
+      <selection activeCell="F6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3092,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="45"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -3406,13 +7028,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -3851,32 +7473,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043E0DC0-F016-4AF6-A513-992480384507}">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB840D9-CCBC-4B8A-9F29-8A87AC2422CE}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F1" sqref="F1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3887,235 +7508,148 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="F2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
-        <v>1.5698589999999999</v>
+        <v>3.4536889999999998</v>
       </c>
       <c r="D3" s="4">
-        <v>1.15123</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>1.6849816</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>1.2454212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.622187</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>1.7163787999999998</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4652014000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6117215999999999</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9256934000000001</v>
-      </c>
-      <c r="I5">
-        <f>$G5-F5</f>
-        <v>0.31397180000000025</v>
-      </c>
-      <c r="K5">
-        <f>I5/G5*100</f>
-        <v>16.304350422554297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="F3" s="37">
+        <v>20</v>
+      </c>
+      <c r="G3" s="38">
+        <f>SUM(C3,C6,C9,C12,C15)/5</f>
+        <v>3.4641550000000003</v>
+      </c>
+      <c r="H3" s="38">
+        <f>SUM(D3,D6,D9,D12,D15)/5</f>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="9">
+        <f>(H3-G3)/H3*100</f>
+        <v>17.661689969536653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
         <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>3.1397170000000001</v>
+        <v>4.1862899999999996</v>
       </c>
       <c r="D6" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="E6" s="10">
+        <v>4.2909470000000001</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.7734169999999998</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2072213999999999</v>
-      </c>
-      <c r="I6">
-        <f>$G6-F6</f>
-        <v>1.4338044000000001</v>
-      </c>
-      <c r="K6">
-        <f>I6/G6*100</f>
-        <v>34.079604177712163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="C9" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6.4887490000000003</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.7912090000000003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>7.0434327999999997</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.9900577999999989</v>
-      </c>
-      <c r="I7">
-        <f>$G7-F7</f>
-        <v>1.9466249999999992</v>
-      </c>
-      <c r="K7">
-        <f>I7/G7*100</f>
-        <v>21.653086590833702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>13.239141999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17.111460000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>14.2229198</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>17.226582999999998</v>
-      </c>
-      <c r="I8">
-        <f>$G8-F8</f>
-        <v>3.0036631999999983</v>
-      </c>
-      <c r="K8">
-        <f>I8/G8*100</f>
-        <v>17.436210071376308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>22.658294000000001</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26.373626000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>23.526949199999997</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>26.3526946</v>
-      </c>
-      <c r="I9">
-        <f>$G9-F9</f>
-        <v>2.8257454000000024</v>
-      </c>
-      <c r="K9">
-        <f>I9/G9*100</f>
-        <v>10.722794928151304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -4126,500 +7660,79 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="I11">
-        <f>SUM(I3:I9)/7</f>
-        <v>1.3605442571428572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>0</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>2.040816</v>
+        <v>2.8257460000000001</v>
       </c>
       <c r="D12" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I5:I7)/3</f>
-        <v>1.2314670666666665</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1.831502</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.51753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.988488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="4">
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>3.0350600000000001</v>
+        <v>2.5641029999999998</v>
       </c>
       <c r="D15" s="4">
-        <v>4.2909470000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.6980639999999996</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5295660000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>15.122972000000001</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.524332999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>22.972266000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>25.117739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.040816</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.622187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2.3024589999999998</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.8838299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1.988488</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3.1920459999999999</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.8665620000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6.7503919999999997</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.105181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>13.762428</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.326530999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4">
-        <v>23.338566</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25.013082000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.2035579999999999</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.73260099999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.255887</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.15123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1.465201</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2.6687599999999998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.1397170000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4">
-        <v>6.593407</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.2679229999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4">
-        <v>14.4427</v>
-      </c>
-      <c r="D35" s="4">
-        <v>16.902145000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4">
-        <v>24.856096000000001</v>
-      </c>
-      <c r="D36" s="4">
-        <v>27.891155999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1.360544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.465201</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.936159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1.831502</v>
-      </c>
-      <c r="D42" s="4">
         <v>4.5002620000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4">
-        <v>8.6865520000000007</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10.256410000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4">
-        <v>14.547357</v>
-      </c>
-      <c r="D44" s="4">
-        <v>17.268446000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4">
-        <v>50</v>
-      </c>
-      <c r="C45" s="4">
-        <v>23.809524</v>
-      </c>
-      <c r="D45" s="4">
-        <v>27.36787</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADC542-DE48-4E27-9C80-E62713485DC9}">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B1C1A-B062-4633-A5AE-FA6EE3081DB1}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4630,227 +7743,118 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="F2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
-        <v>1.6745159999999999</v>
+        <v>3.7676609999999999</v>
       </c>
       <c r="D3" s="4">
-        <v>1.15123</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>1.8733648000000003</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>1.2454212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>1.8001047999999997</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4652014000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.831502</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8001048000000002</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9256934000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="F3" s="37">
+        <v>20</v>
+      </c>
+      <c r="G3" s="38">
+        <f>SUM(C3,C6,C9,C12,C15)/5</f>
+        <v>3.7571953999999996</v>
+      </c>
+      <c r="H3" s="38">
+        <f>SUM(D3,D6,D9,D12,D15)/5</f>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="9">
+        <f>(H3-G3)/H3*100</f>
+        <v>10.696513380541377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
         <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>2.616431</v>
+        <v>4.0816330000000001</v>
       </c>
       <c r="D6" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="E6" s="10">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.616431</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2072213999999999</v>
-      </c>
-      <c r="I6">
-        <f>$G6-F6</f>
-        <v>1.5907903999999999</v>
-      </c>
-      <c r="K6">
-        <f>I6/G6*100</f>
-        <v>37.810950476720812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="C9" s="4">
+        <v>4.7095760000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5.5468339999999996</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.7912090000000003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>6.3526948000000001</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.9900577999999989</v>
-      </c>
-      <c r="I7">
-        <f>$G7-F7</f>
-        <v>2.6373629999999988</v>
-      </c>
-      <c r="K7">
-        <f>I7/G7*100</f>
-        <v>29.336440973716531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>12.663527</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17.111460000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>12.098377800000002</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>17.226582999999998</v>
-      </c>
-      <c r="I8">
-        <f>$G8-F8</f>
-        <v>5.1282051999999965</v>
-      </c>
-      <c r="K8">
-        <f>I8/G8*100</f>
-        <v>29.769137617135083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>21.245421</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26.373626000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>22.574568199999998</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>26.3526946</v>
-      </c>
-      <c r="I9">
-        <f>$G9-F9</f>
-        <v>3.7781264000000014</v>
-      </c>
-      <c r="K9">
-        <f>I9/G9*100</f>
-        <v>14.336774501989643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -4861,500 +7865,84 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="I11">
-        <f>SUM(I3:I9)/7</f>
-        <v>1.8763549999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>0</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>2.407117</v>
+        <v>3.2443749999999998</v>
       </c>
       <c r="D12" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I5:I7)/3</f>
-        <v>1.4093844666666662</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.040816</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.51753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.7791729999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.988488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="4">
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>3.0350600000000001</v>
+        <v>2.9827319999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>4.2909470000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.4887490000000003</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5295660000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>13.814757</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.524332999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>22.762951000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>25.117739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.622187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2.1978019999999998</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.8838299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2.2501310000000001</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3.0350600000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.8665620000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6.017792</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.105181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10.361068</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.326530999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4">
-        <v>22.448979999999999</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25.013082000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.465201</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.73260099999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.15123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2.7734169999999998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.1397170000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4">
-        <v>6.227106</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.2679229999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4">
-        <v>11.616954</v>
-      </c>
-      <c r="D35" s="4">
-        <v>16.902145000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4">
-        <v>23.809524</v>
-      </c>
-      <c r="D36" s="4">
-        <v>27.891155999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1.360544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.936159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1.622187</v>
-      </c>
-      <c r="D42" s="4">
         <v>4.5002620000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4">
-        <v>7.4829929999999996</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10.256410000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4">
-        <v>12.035583000000001</v>
-      </c>
-      <c r="D44" s="4">
-        <v>17.268446000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4">
-        <v>50</v>
-      </c>
-      <c r="C45" s="4">
-        <v>22.605965000000001</v>
-      </c>
-      <c r="D45" s="4">
-        <v>27.36787</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45D620-F4D9-41D4-9209-FD4CDAC74CC7}">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDF0D26-FE96-40D4-ABB2-8A71E00D3025}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F1" sqref="F1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="7" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="29.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="G1" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5365,227 +7953,146 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="F2" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
-        <v>4.0816330000000001</v>
+        <v>2.0931449999999998</v>
       </c>
       <c r="D3" s="4">
-        <v>1.15123</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>2.5850341999999999</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>0.82679220000000009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.6630039999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>2.3338568000000004</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.94191520000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3.2967029999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>2.0931448000000001</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.2454214000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="F3" s="37">
+        <v>20</v>
+      </c>
+      <c r="G3" s="38">
+        <f>SUM(C3,C6,C9,C12,C15)/5</f>
+        <v>2.2710621999999998</v>
+      </c>
+      <c r="H3" s="38">
+        <f>SUM(D3,D6,D9,D12,D15)/5</f>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I3" s="9">
+        <f>(H3-G3)/H3*100</f>
+        <v>46.019902827077274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
         <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>2.9827319999999999</v>
+        <v>2.6687599999999998</v>
       </c>
       <c r="D6" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="E6" s="10">
+        <v>4.2909470000000001</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>1.8105704</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6792255999999997</v>
-      </c>
-      <c r="I6">
-        <f>$G6-F6</f>
-        <v>0.86865519999999963</v>
-      </c>
-      <c r="K6">
-        <f>I6/G6*100</f>
-        <v>32.42187593310544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="C9" s="4">
+        <v>2.721088</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2.9304030000000001</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.7912090000000003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>1.9152276000000001</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>5.2851911999999999</v>
-      </c>
-      <c r="I7">
-        <f>$G7-F7</f>
-        <v>3.3699635999999997</v>
-      </c>
-      <c r="K7">
-        <f>I7/G7*100</f>
-        <v>63.762378170916499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4.7619049999999996</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17.111460000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>2.6582940000000002</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>10.392464799999999</v>
-      </c>
-      <c r="I8">
-        <f>$G8-F8</f>
-        <v>7.7341707999999993</v>
-      </c>
-      <c r="K8">
-        <f>I8/G8*100</f>
-        <v>74.42094776207469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6.6457350000000002</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26.373626000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>3.9141810000000001</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>15.300889399999999</v>
-      </c>
-      <c r="I9">
-        <f>$G9-F9</f>
-        <v>11.3867084</v>
-      </c>
-      <c r="K9">
-        <f>I9/G9*100</f>
-        <v>74.418604711958764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -5596,279 +8103,84 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="I11">
-        <f>SUM(I3:I9)/7</f>
-        <v>3.3370711428571425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>0</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>4.6572480000000001</v>
+        <v>1.831502</v>
       </c>
       <c r="D12" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I5:I7)/3</f>
-        <v>1.4128729333333332</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4.0816330000000001</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.51753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3.8723179999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.988488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="4">
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>2.721088</v>
+        <v>2.040816</v>
       </c>
       <c r="D15" s="4">
-        <v>4.2909470000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3.0873889999999999</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5295660000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4.3956039999999996</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.524332999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>7.7969650000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>25.117739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4.1862899999999996</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.622187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3.9246470000000002</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.8838299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3.2967029999999999</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3.3490319999999998</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.8665620000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>3.5583459999999998</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.105181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4.1339610000000002</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.326530999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4">
-        <v>5.1282050000000003</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25.013082000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>4.5002620000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E60F0C-121E-4CA4-AD01-FA0B3C207F39}">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A6D53E-E904-4240-A997-3099BB6347C8}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="I1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="G1" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5879,246 +8191,146 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="F2" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
-        <v>4.5525900000000004</v>
+        <v>2.0758589999999999</v>
       </c>
       <c r="D3" s="4">
-        <v>1.15123</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>4.7514389999999995</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>1.2454212</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>4.3223446000000001</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4652014000000002</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3.7153320000000001</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>3.7990581999999997</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9256934000000001</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
+        <v>3.2291129999999999</v>
+      </c>
+      <c r="F3" s="37">
+        <v>20</v>
+      </c>
+      <c r="G3" s="38">
+        <f>SUM(C3,C6,C9,C12,C15)/5</f>
+        <v>2.1168632000000001</v>
+      </c>
+      <c r="H3" s="38">
+        <f>SUM(D3,D6,D9,D12,D15)/5</f>
+        <v>3.3828805999999991</v>
+      </c>
+      <c r="I3" s="9">
+        <f>(H3-G3)/H3*100</f>
+        <v>37.424241340353525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
         <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>3.5583459999999998</v>
+        <v>1.768324</v>
       </c>
       <c r="D6" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="E6" s="10">
+        <v>2.9215789999999999</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>3.6106749999999996</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2072213999999999</v>
-      </c>
-      <c r="I6" s="5">
-        <f>$G6-F6</f>
-        <v>0.59654640000000025</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
-        <f>I6/G6*100</f>
-        <v>14.179106428770311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="C9" s="4">
+        <v>2.101486</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.1773449999999999</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3.7153320000000001</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.7912090000000003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>3.8409210000000003</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.9900577999999989</v>
-      </c>
-      <c r="I7" s="5">
-        <f>$G7-F7</f>
-        <v>5.1491367999999991</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
-        <f>I7/G7*100</f>
-        <v>57.275903164938491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5.5991629999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17.111460000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>5.0444791999999996</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>17.226582999999998</v>
-      </c>
-      <c r="I8" s="5">
-        <f>$G8-F8</f>
-        <v>12.182103799999998</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <f>I8/G8*100</f>
-        <v>70.716890285206304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>7.8492940000000004</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26.373626000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>7.2422813999999986</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>26.3526946</v>
-      </c>
-      <c r="I9" s="5">
-        <f>$G9-F9</f>
-        <v>19.1104132</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
-        <f>I9/G9*100</f>
-        <v>72.517871474137607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -6129,528 +8341,86 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="I11" s="5">
-        <f>SUM(I3:I9)/7</f>
-        <v>5.2911714571428572</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>0</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>5.3375199999999996</v>
+        <v>2.5627879999999998</v>
       </c>
       <c r="D12" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I5:I7)/3</f>
-        <v>1.9152277333333332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4.9188910000000003</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.51753</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.988488</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:11">
+        <v>3.6391589999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="4">
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>3.7676609999999999</v>
+        <v>2.0758589999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>4.2909470000000001</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4.0293039999999998</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5295660000000009</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5.1282050000000003</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.524332999999999</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>6.6457350000000002</v>
-      </c>
-      <c r="D18" s="4">
-        <v>25.117739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5.4945050000000002</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.622187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4.6049189999999998</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.8838299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4.0293039999999998</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3.7153320000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.8665620000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.105181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4.5525900000000004</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.326530999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4">
-        <v>5.5468339999999996</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25.013082000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="3">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>3.9246470000000002</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.73260099999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>3.6630039999999999</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.15123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3.2443749999999998</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3.2443749999999998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.1397170000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4">
-        <v>3.2967029999999999</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.2679229999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4">
-        <v>4.9712189999999996</v>
-      </c>
-      <c r="D35" s="4">
-        <v>16.902145000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4">
-        <v>8.5818940000000001</v>
-      </c>
-      <c r="D36" s="4">
-        <v>27.891155999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>4.4479329999999999</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1.360544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>4.1862899999999996</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>3.7676609999999999</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.936159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3.7676609999999999</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4.5002620000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3.9246470000000002</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10.256410000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4">
-        <v>4.9712189999999996</v>
-      </c>
-      <c r="D44" s="4">
-        <v>17.268446000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4">
-        <v>50</v>
-      </c>
-      <c r="C45" s="4">
-        <v>7.58765</v>
-      </c>
-      <c r="D45" s="4">
-        <v>27.36787</v>
+        <v>2.9472070000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F13:J13"/>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7E4CB-1013-4A61-8F30-D13FBB6C7CB7}">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B7EB0-97FE-4240-A4DE-1E39791B3C3D}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="G1" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -6661,235 +8431,146 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="F2" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
-        <v>1.7791729999999999</v>
+        <v>3.4536889999999998</v>
       </c>
       <c r="D3" s="4">
-        <v>1.15123</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>1.9152277999999998</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>1.2454212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.622187</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>1.7582418</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4652014000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.6745159999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14">
-        <f t="shared" si="0"/>
-        <v>1.8210362</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9256934000000001</v>
-      </c>
-      <c r="I5">
-        <f>$G5-F5</f>
-        <v>0.10465720000000012</v>
-      </c>
-      <c r="K5">
-        <f>I5/G5*100</f>
-        <v>5.4347800122283285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="F3" s="37">
+        <v>20</v>
+      </c>
+      <c r="G3" s="38">
+        <f>SUM(C3,C6,C9,C12,C15)/5</f>
+        <v>3.5478808000000002</v>
+      </c>
+      <c r="H3" s="38">
+        <f>SUM(D3,D6,D9,D12,D15)/5</f>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I3" s="9">
+        <f>(H3-G3)/H3*100</f>
+        <v>15.671640194642473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
         <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>2.3547880000000001</v>
+        <v>3.9246470000000002</v>
       </c>
       <c r="D6" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4">
         <v>4.2386189999999999</v>
       </c>
-      <c r="E6" s="10">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.5327053999999998</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2072213999999999</v>
-      </c>
-      <c r="I6">
-        <f>$G6-F6</f>
-        <v>1.6745160000000001</v>
-      </c>
-      <c r="K6">
-        <f>I6/G6*100</f>
-        <v>39.800995497883711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="D9" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5.651491</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.7912090000000003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>6.0805859999999994</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.9900577999999989</v>
-      </c>
-      <c r="I7">
-        <f>$G7-F7</f>
-        <v>2.9094717999999995</v>
-      </c>
-      <c r="K7">
-        <f>I7/G7*100</f>
-        <v>32.363215729269278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10.256410000000001</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17.111460000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>10.790162</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>17.226582999999998</v>
-      </c>
-      <c r="I8">
-        <f>$G8-F8</f>
-        <v>6.4364209999999975</v>
-      </c>
-      <c r="K8">
-        <f>I8/G8*100</f>
-        <v>37.363306466523269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>19.518577000000001</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26.373626000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>20.554683600000001</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>26.3526946</v>
-      </c>
-      <c r="I9">
-        <f>$G9-F9</f>
-        <v>5.7980109999999989</v>
-      </c>
-      <c r="K9">
-        <f>I9/G9*100</f>
-        <v>22.001586888955178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -6900,466 +8581,56 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="I11">
-        <f>SUM(I3:I9)/7</f>
-        <v>2.417582428571428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>0</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>2.407117</v>
+        <v>3.2967029999999999</v>
       </c>
       <c r="D12" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I5:I7)/3</f>
-        <v>1.5628816666666665</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.51753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.988488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="4">
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>2.8780739999999998</v>
+        <v>2.8257460000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>4.2909470000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.017792</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5295660000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>11.616954</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.524332999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>20.931450000000002</v>
-      </c>
-      <c r="D18" s="4">
-        <v>25.117739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.2501310000000001</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.622187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1.988488</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.8838299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3.2443749999999998</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.8665620000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6.2794350000000003</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.105181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10.413396000000001</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.326530999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4">
-        <v>19.152276000000001</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25.013082000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.412873</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.73260099999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.15123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1.622187</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2.1978019999999998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.1397170000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5.651491</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.2679229999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10.256410000000001</v>
-      </c>
-      <c r="D35" s="4">
-        <v>16.902145000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4">
-        <v>21.454736</v>
-      </c>
-      <c r="D36" s="4">
-        <v>27.891155999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1.360544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1.6745159999999999</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.51753</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.936159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1.988488</v>
-      </c>
-      <c r="D42" s="4">
         <v>4.5002620000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4">
-        <v>6.802721</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10.256410000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4">
-        <v>11.407640000000001</v>
-      </c>
-      <c r="D44" s="4">
-        <v>17.268446000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4">
-        <v>50</v>
-      </c>
-      <c r="C45" s="4">
-        <v>21.716379</v>
-      </c>
-      <c r="D45" s="4">
-        <v>27.36787</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>